--- a/src/EPPlusTest/Workbooks/FullPrecisionIF.xlsx
+++ b/src/EPPlusTest/Workbooks/FullPrecisionIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\EpplusStyleProblem\EPPlusTest\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\EPPlus-AMANA\src\EPPlusTest\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E1FE7-5E71-487B-AA13-CB41A8567677}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F818C-B548-435F-95E9-880AADE746A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3147C3E8-BBF1-4A28-8DC8-E479C3765E7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3147C3E8-BBF1-4A28-8DC8-E479C3765E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,11 +68,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,7 +88,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -379,33 +384,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D118D9-32F8-4D67-91B4-573F566EDB78}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>9.9999999999999995E-8</v>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1E-8</v>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>IF(B3=0,"OK","Not OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <f>SUM(B1:B2)</f>
         <v>0</v>
       </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/EPPlusTest/Workbooks/FullPrecisionIF.xlsx
+++ b/src/EPPlusTest/Workbooks/FullPrecisionIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\EPPlus-AMANA\src\EPPlusTest\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\EpplusStyleProblem\EPPlusTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F818C-B548-435F-95E9-880AADE746A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E1FE7-5E71-487B-AA13-CB41A8567677}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3147C3E8-BBF1-4A28-8DC8-E479C3765E7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3147C3E8-BBF1-4A28-8DC8-E479C3765E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,11 +63,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -88,7 +83,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,36 +379,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D118D9-32F8-4D67-91B4-573F566EDB78}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>0.1</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0.1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>IF(B3=0,"OK","Not OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="B3" s="2">
         <f>SUM(B1:B2)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
